--- a/English/deshdoot-wildlife/Data Excels (Main Data, Shortened Excel)/deshdoot-wildlife.xlsx
+++ b/English/deshdoot-wildlife/Data Excels (Main Data, Shortened Excel)/deshdoot-wildlife.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI-ML\Data-Scraping-Wildlife-care\English\deshdoot-wildlife\Data Excels (Main Data, Shortened Excel)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4022584B-467D-4258-AFE7-4CD1DAEF0842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B930359-390D-4D41-A37E-B9461EC84C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4437,12 +4437,12 @@
   <dimension ref="A1:I567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>95</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>116</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
         <v>131</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>139</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>141</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>150</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
         <v>151</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" s="1" t="s">
         <v>153</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
         <v>155</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>157</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>159</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" s="1" t="s">
         <v>165</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
         <v>169</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
         <v>171</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
         <v>173</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72" s="1" t="s">
         <v>175</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73" s="1" t="s">
         <v>177</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
         <v>179</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
         <v>181</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76" s="1" t="s">
         <v>185</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77" s="1" t="s">
         <v>187</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78" s="1" t="s">
         <v>189</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79" s="1" t="s">
         <v>191</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80" s="1" t="s">
         <v>193</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A81" s="1" t="s">
         <v>197</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82" s="1" t="s">
         <v>199</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A83" s="1" t="s">
         <v>201</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84" s="1" t="s">
         <v>203</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85" s="1" t="s">
         <v>209</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A86" s="1" t="s">
         <v>211</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A87" s="1" t="s">
         <v>213</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A88" s="1" t="s">
         <v>215</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A89" s="1" t="s">
         <v>219</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A90" s="1" t="s">
         <v>221</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A91" s="1" t="s">
         <v>223</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A92" s="1" t="s">
         <v>225</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93" s="1" t="s">
         <v>227</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94" s="1" t="s">
         <v>229</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95" s="1" t="s">
         <v>231</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A96" s="1" t="s">
         <v>233</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A97" s="1" t="s">
         <v>235</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A98" s="1" t="s">
         <v>237</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A99" s="1" t="s">
         <v>239</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A100" s="1" t="s">
         <v>241</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A101" s="1" t="s">
         <v>245</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A102" s="1" t="s">
         <v>247</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A103" s="1" t="s">
         <v>249</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A104" s="1" t="s">
         <v>251</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A105" s="1" t="s">
         <v>253</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A106" s="1" t="s">
         <v>255</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A107" s="1" t="s">
         <v>257</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A108" s="1" t="s">
         <v>259</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A109" s="1" t="s">
         <v>261</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A110" s="1" t="s">
         <v>263</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A111" s="1" t="s">
         <v>265</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A112" s="1" t="s">
         <v>267</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A113" s="1" t="s">
         <v>269</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
         <v>271</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A115" s="1" t="s">
         <v>273</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A116" s="1" t="s">
         <v>275</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A117" s="1" t="s">
         <v>277</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A118" s="1" t="s">
         <v>279</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A119" s="1" t="s">
         <v>281</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A120" s="1" t="s">
         <v>283</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A121" s="1" t="s">
         <v>285</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A122" s="1" t="s">
         <v>287</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A123" s="1" t="s">
         <v>289</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A124" s="1" t="s">
         <v>291</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A125" s="1" t="s">
         <v>293</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A126" s="1" t="s">
         <v>295</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A127" s="1" t="s">
         <v>297</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A128" s="1" t="s">
         <v>299</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A129" s="1" t="s">
         <v>301</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A130" s="1" t="s">
         <v>303</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A131" s="1" t="s">
         <v>305</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A132" s="1" t="s">
         <v>309</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A133" s="1" t="s">
         <v>311</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A134" s="1" t="s">
         <v>313</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A135" s="1" t="s">
         <v>315</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A136" s="1" t="s">
         <v>317</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A137" s="1" t="s">
         <v>319</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A138" s="1" t="s">
         <v>323</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A139" s="1" t="s">
         <v>325</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A140" s="1" t="s">
         <v>327</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A141" s="1" t="s">
         <v>329</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A142" s="1" t="s">
         <v>331</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A143" s="1" t="s">
         <v>333</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A144" s="1" t="s">
         <v>335</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A145" s="1" t="s">
         <v>337</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A146" s="1" t="s">
         <v>342</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A147" s="1" t="s">
         <v>344</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A148" s="1" t="s">
         <v>346</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A149" s="1" t="s">
         <v>348</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A150" s="1" t="s">
         <v>350</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A151" s="1" t="s">
         <v>352</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A152" s="1" t="s">
         <v>354</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A153" s="1" t="s">
         <v>356</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A154" s="1" t="s">
         <v>358</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A155" s="1" t="s">
         <v>362</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A156" s="1" t="s">
         <v>364</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A157" s="1" t="s">
         <v>366</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A158" s="1" t="s">
         <v>368</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A159" s="1" t="s">
         <v>370</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A160" s="1" t="s">
         <v>372</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A161" s="1" t="s">
         <v>374</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A162" s="1" t="s">
         <v>376</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A163" s="1" t="s">
         <v>378</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A164" s="1" t="s">
         <v>380</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A165" s="1" t="s">
         <v>382</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A166" s="1" t="s">
         <v>387</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A167" s="1" t="s">
         <v>389</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A168" s="1" t="s">
         <v>391</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A169" s="1" t="s">
         <v>393</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A170" s="1" t="s">
         <v>395</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A171" s="1" t="s">
         <v>397</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A172" s="1" t="s">
         <v>399</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A173" s="1" t="s">
         <v>401</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A174" s="1" t="s">
         <v>403</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A175" s="1" t="s">
         <v>405</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A176" s="1" t="s">
         <v>407</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A177" s="1" t="s">
         <v>409</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A178" s="1" t="s">
         <v>411</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A179" s="1" t="s">
         <v>413</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A180" s="1" t="s">
         <v>415</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A181" s="1" t="s">
         <v>417</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A182" s="1" t="s">
         <v>419</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A183" s="1" t="s">
         <v>421</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A184" s="1" t="s">
         <v>423</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A185" s="1" t="s">
         <v>425</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A186" s="1" t="s">
         <v>427</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A187" s="1" t="s">
         <v>429</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A188" s="1" t="s">
         <v>431</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A189" s="1" t="s">
         <v>433</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A190" s="1" t="s">
         <v>435</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A191" s="1" t="s">
         <v>437</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A192" s="1" t="s">
         <v>439</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A193" s="1" t="s">
         <v>441</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A194" s="1" t="s">
         <v>443</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A195" s="1" t="s">
         <v>447</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A196" s="1" t="s">
         <v>449</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A197" s="1" t="s">
         <v>451</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A198" s="1" t="s">
         <v>453</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A199" s="1" t="s">
         <v>455</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A200" s="1" t="s">
         <v>457</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A201" s="1" t="s">
         <v>459</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A202" s="1" t="s">
         <v>461</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A203" s="1" t="s">
         <v>463</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A204" s="1" t="s">
         <v>465</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A205" s="1" t="s">
         <v>467</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A206" s="1" t="s">
         <v>469</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A207" s="1" t="s">
         <v>471</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A208" s="1" t="s">
         <v>473</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A209" s="1" t="s">
         <v>475</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A210" s="1" t="s">
         <v>479</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A211" s="1" t="s">
         <v>481</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A212" s="1" t="s">
         <v>483</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A213" s="1" t="s">
         <v>485</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A214" s="1" t="s">
         <v>487</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A215" s="1" t="s">
         <v>489</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A216" s="1" t="s">
         <v>491</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A217" s="1" t="s">
         <v>493</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A218" s="1" t="s">
         <v>495</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A219" s="1" t="s">
         <v>497</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A220" s="1" t="s">
         <v>502</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A221" s="1" t="s">
         <v>504</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A222" s="1" t="s">
         <v>506</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A223" s="1" t="s">
         <v>508</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A224" s="1" t="s">
         <v>510</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A225" s="1" t="s">
         <v>512</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A226" s="1" t="s">
         <v>514</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A227" s="1" t="s">
         <v>516</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A228" s="1" t="s">
         <v>518</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A229" s="1" t="s">
         <v>520</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A230" s="1" t="s">
         <v>522</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A231" s="1" t="s">
         <v>527</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A232" s="1" t="s">
         <v>529</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A233" s="1" t="s">
         <v>531</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A234" s="1" t="s">
         <v>533</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A235" s="1" t="s">
         <v>535</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A236" s="1" t="s">
         <v>540</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A237" s="1" t="s">
         <v>542</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A238" s="1" t="s">
         <v>544</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A239" s="1" t="s">
         <v>549</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A240" s="1" t="s">
         <v>551</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A241" s="1" t="s">
         <v>553</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A242" s="1" t="s">
         <v>555</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A243" s="1" t="s">
         <v>557</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A244" s="1" t="s">
         <v>558</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A245" s="1" t="s">
         <v>559</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A246" s="1" t="s">
         <v>560</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A247" s="1" t="s">
         <v>566</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A248" s="1" t="s">
         <v>568</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A249" s="1" t="s">
         <v>570</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A250" s="1" t="s">
         <v>572</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A251" s="1" t="s">
         <v>574</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A252" s="1" t="s">
         <v>575</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A253" s="1" t="s">
         <v>576</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A254" s="1" t="s">
         <v>577</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A255" s="1" t="s">
         <v>582</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A256" s="1" t="s">
         <v>584</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A257" s="1" t="s">
         <v>586</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A258" s="1" t="s">
         <v>588</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A259" s="1" t="s">
         <v>590</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A260" s="1" t="s">
         <v>591</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A261" s="1" t="s">
         <v>592</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A262" s="1" t="s">
         <v>593</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A263" s="1" t="s">
         <v>598</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A264" s="1" t="s">
         <v>600</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A265" s="1" t="s">
         <v>602</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A266" s="1" t="s">
         <v>604</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A267" s="1" t="s">
         <v>606</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A268" s="1" t="s">
         <v>611</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A269" s="1" t="s">
         <v>613</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A270" s="1" t="s">
         <v>615</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A271" s="1" t="s">
         <v>617</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A272" s="1" t="s">
         <v>619</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A273" s="1" t="s">
         <v>621</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A274" s="1" t="s">
         <v>626</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A275" s="1" t="s">
         <v>628</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A276" s="1" t="s">
         <v>630</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A277" s="1" t="s">
         <v>632</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A278" s="1" t="s">
         <v>634</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A279" s="1" t="s">
         <v>639</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A280" s="1" t="s">
         <v>641</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A281" s="1" t="s">
         <v>643</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A282" s="1" t="s">
         <v>648</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A283" s="1" t="s">
         <v>650</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A284" s="1" t="s">
         <v>652</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A285" s="1" t="s">
         <v>654</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A286" s="1" t="s">
         <v>656</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A287" s="1" t="s">
         <v>661</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A288" s="1" t="s">
         <v>663</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A289" s="1" t="s">
         <v>665</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A290" s="1" t="s">
         <v>667</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A291" s="1" t="s">
         <v>669</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A292" s="1" t="s">
         <v>671</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A293" s="1" t="s">
         <v>673</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A294" s="1" t="s">
         <v>679</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A295" s="1" t="s">
         <v>681</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A296" s="1" t="s">
         <v>683</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A297" s="1" t="s">
         <v>685</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A298" s="1" t="s">
         <v>687</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A299" s="1" t="s">
         <v>689</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A300" s="1" t="s">
         <v>694</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A301" s="1" t="s">
         <v>696</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A302" s="1" t="s">
         <v>698</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A303" s="1" t="s">
         <v>700</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A304" s="1" t="s">
         <v>702</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A305" s="1" t="s">
         <v>704</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A306" s="1" t="s">
         <v>706</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A307" s="1" t="s">
         <v>708</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A308" s="1" t="s">
         <v>710</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A309" s="1" t="s">
         <v>715</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A310" s="1" t="s">
         <v>717</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A311" s="1" t="s">
         <v>719</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A312" s="1" t="s">
         <v>721</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A313" s="1" t="s">
         <v>723</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A314" s="1" t="s">
         <v>725</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A315" s="1" t="s">
         <v>727</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A316" s="1" t="s">
         <v>732</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A317" s="1" t="s">
         <v>734</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A318" s="1" t="s">
         <v>736</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A319" s="1" t="s">
         <v>741</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A320" s="1" t="s">
         <v>743</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A321" s="1" t="s">
         <v>745</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A322" s="1" t="s">
         <v>747</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A323" s="1" t="s">
         <v>749</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A324" s="1" t="s">
         <v>754</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A325" s="1" t="s">
         <v>756</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A326" s="1" t="s">
         <v>758</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A327" s="1" t="s">
         <v>760</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A328" s="1" t="s">
         <v>762</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A329" s="1" t="s">
         <v>764</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A330" s="1" t="s">
         <v>766</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A331" s="1" t="s">
         <v>768</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A332" s="1" t="s">
         <v>770</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A333" s="1" t="s">
         <v>772</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A334" s="1" t="s">
         <v>774</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A335" s="1" t="s">
         <v>779</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A336" s="1" t="s">
         <v>781</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A337" s="1" t="s">
         <v>783</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A338" s="1" t="s">
         <v>785</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A339" s="1" t="s">
         <v>787</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A340" s="1" t="s">
         <v>789</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A341" s="1" t="s">
         <v>791</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A342" s="1" t="s">
         <v>793</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A343" s="1" t="s">
         <v>795</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A344" s="1" t="s">
         <v>800</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A345" s="1" t="s">
         <v>802</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A346" s="1" t="s">
         <v>804</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A347" s="1" t="s">
         <v>806</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A348" s="1" t="s">
         <v>811</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A349" s="1" t="s">
         <v>813</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A350" s="1" t="s">
         <v>815</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A351" s="1" t="s">
         <v>817</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A352" s="1" t="s">
         <v>819</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A353" s="1" t="s">
         <v>821</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A354" s="1" t="s">
         <v>826</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A355" s="1" t="s">
         <v>828</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A356" s="1" t="s">
         <v>830</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A357" s="1" t="s">
         <v>832</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A358" s="1" t="s">
         <v>838</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A359" s="1" t="s">
         <v>840</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A360" s="1" t="s">
         <v>842</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A361" s="1" t="s">
         <v>844</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A362" s="1" t="s">
         <v>846</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A363" s="1" t="s">
         <v>848</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A364" s="1" t="s">
         <v>850</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A365" s="1" t="s">
         <v>852</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A366" s="1" t="s">
         <v>854</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A367" s="1" t="s">
         <v>856</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A368" s="1" t="s">
         <v>858</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A369" s="1" t="s">
         <v>860</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A370" s="1" t="s">
         <v>862</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A371" s="1" t="s">
         <v>864</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A372" s="1" t="s">
         <v>866</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A373" s="1" t="s">
         <v>871</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A374" s="1" t="s">
         <v>876</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A375" s="1" t="s">
         <v>878</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A376" s="1" t="s">
         <v>880</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A377" s="1" t="s">
         <v>882</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A378" s="1" t="s">
         <v>887</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A379" s="1" t="s">
         <v>889</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A380" s="1" t="s">
         <v>891</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A381" s="1" t="s">
         <v>893</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A382" s="1" t="s">
         <v>895</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A383" s="1" t="s">
         <v>897</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A384" s="1" t="s">
         <v>899</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A385" s="1" t="s">
         <v>901</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A386" s="1" t="s">
         <v>903</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A387" s="1" t="s">
         <v>905</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A388" s="1" t="s">
         <v>907</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A389" s="1" t="s">
         <v>909</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A390" s="1" t="s">
         <v>911</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A391" s="1" t="s">
         <v>916</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A392" s="1" t="s">
         <v>918</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A393" s="1" t="s">
         <v>920</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A394" s="1" t="s">
         <v>922</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A395" s="1" t="s">
         <v>924</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A396" s="1" t="s">
         <v>926</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A397" s="1" t="s">
         <v>928</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A398" s="1" t="s">
         <v>933</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A399" s="1" t="s">
         <v>935</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A400" s="1" t="s">
         <v>937</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A401" s="1" t="s">
         <v>939</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A402" s="1" t="s">
         <v>941</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A403" s="1" t="s">
         <v>946</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A404" s="1" t="s">
         <v>948</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A405" s="1" t="s">
         <v>950</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A406" s="1" t="s">
         <v>952</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A407" s="1" t="s">
         <v>954</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A408" s="1" t="s">
         <v>956</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A409" s="1" t="s">
         <v>961</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A410" s="1" t="s">
         <v>963</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A411" s="1" t="s">
         <v>965</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A412" s="1" t="s">
         <v>967</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A413" s="1" t="s">
         <v>969</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A414" s="1" t="s">
         <v>971</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A415" s="1" t="s">
         <v>973</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A416" s="1" t="s">
         <v>975</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A417" s="1" t="s">
         <v>977</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A418" s="1" t="s">
         <v>979</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A419" s="1" t="s">
         <v>984</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A420" s="1" t="s">
         <v>986</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A421" s="1" t="s">
         <v>988</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A422" s="1" t="s">
         <v>990</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A423" s="1" t="s">
         <v>991</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A424" s="1" t="s">
         <v>993</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A425" s="1" t="s">
         <v>995</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A426" s="1" t="s">
         <v>997</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A427" s="1" t="s">
         <v>1002</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A428" s="1" t="s">
         <v>1004</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A429" s="1" t="s">
         <v>1006</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A430" s="1" t="s">
         <v>1008</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A431" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A432" s="1" t="s">
         <v>1012</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A433" s="1" t="s">
         <v>1014</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A434" s="1" t="s">
         <v>1016</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A435" s="1" t="s">
         <v>1018</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A436" s="1" t="s">
         <v>1020</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A437" s="1" t="s">
         <v>1022</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A438" s="1" t="s">
         <v>1024</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A439" s="1" t="s">
         <v>1026</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A440" s="1" t="s">
         <v>1028</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A441" s="1" t="s">
         <v>1030</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A442" s="1" t="s">
         <v>1036</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A443" s="1" t="s">
         <v>1038</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A444" s="1" t="s">
         <v>1040</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A445" s="1" t="s">
         <v>1042</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A446" s="1" t="s">
         <v>1044</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A447" s="1" t="s">
         <v>1046</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A448" s="1" t="s">
         <v>1048</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A449" s="1" t="s">
         <v>1050</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A450" s="1" t="s">
         <v>1055</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A451" s="1" t="s">
         <v>1057</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A452" s="1" t="s">
         <v>1059</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A453" s="1" t="s">
         <v>1061</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A454" s="1" t="s">
         <v>1063</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A455" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A456" s="1" t="s">
         <v>1070</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A457" s="1" t="s">
         <v>1072</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A458" s="1" t="s">
         <v>1074</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A459" s="1" t="s">
         <v>1076</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A460" s="1" t="s">
         <v>1078</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A461" s="1" t="s">
         <v>1083</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A462" s="1" t="s">
         <v>1085</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A463" s="1" t="s">
         <v>1087</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A464" s="1" t="s">
         <v>1089</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A465" s="1" t="s">
         <v>1091</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A466" s="1" t="s">
         <v>1093</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A467" s="1" t="s">
         <v>1095</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A468" s="1" t="s">
         <v>1097</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A469" s="1" t="s">
         <v>1102</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A470" s="1" t="s">
         <v>1104</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A471" s="1" t="s">
         <v>1106</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A472" s="1" t="s">
         <v>1108</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A473" s="1" t="s">
         <v>1110</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A474" s="1" t="s">
         <v>1112</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A475" s="1" t="s">
         <v>1117</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A476" s="1" t="s">
         <v>1119</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A477" s="1" t="s">
         <v>1121</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A478" s="1" t="s">
         <v>1123</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A479" s="1" t="s">
         <v>1128</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A480" s="1" t="s">
         <v>1130</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A481" s="1" t="s">
         <v>1132</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A482" s="1" t="s">
         <v>1134</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A483" s="1" t="s">
         <v>1136</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A484" s="1" t="s">
         <v>1138</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A485" s="1" t="s">
         <v>1143</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A486" s="1" t="s">
         <v>1145</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A487" s="1" t="s">
         <v>1147</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A488" s="1" t="s">
         <v>1149</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A489" s="1" t="s">
         <v>1151</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A490" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A491" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A492" s="1" t="s">
         <v>1157</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A493" s="1" t="s">
         <v>1159</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A494" s="1" t="s">
         <v>1161</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A495" s="1" t="s">
         <v>1166</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A496" s="1" t="s">
         <v>1168</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A497" s="1" t="s">
         <v>1170</v>
       </c>
@@ -17367,7 +17367,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A498" s="1" t="s">
         <v>1172</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A499" s="1" t="s">
         <v>1174</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A500" s="1" t="s">
         <v>1176</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A501" s="1" t="s">
         <v>1181</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A502" s="1" t="s">
         <v>1183</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A503" s="1" t="s">
         <v>1185</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A504" s="1" t="s">
         <v>1191</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A505" s="1" t="s">
         <v>1193</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A506" s="1" t="s">
         <v>1195</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A507" s="1" t="s">
         <v>1197</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A508" s="1" t="s">
         <v>1202</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A509" s="1" t="s">
         <v>1204</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A510" s="1" t="s">
         <v>1206</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A511" s="1" t="s">
         <v>1208</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A512" s="1" t="s">
         <v>1210</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A513" s="1" t="s">
         <v>1212</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A514" s="1" t="s">
         <v>1214</v>
       </c>
@@ -17809,7 +17809,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A515" s="1" t="s">
         <v>1216</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A516" s="1" t="s">
         <v>1218</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A517" s="1" t="s">
         <v>1223</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A518" s="1" t="s">
         <v>1225</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A519" s="1" t="s">
         <v>1227</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A520" s="1" t="s">
         <v>1231</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A521" s="1" t="s">
         <v>1233</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A522" s="1" t="s">
         <v>1235</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A523" s="1" t="s">
         <v>1237</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A524" s="1" t="s">
         <v>1239</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A525" s="1" t="s">
         <v>1241</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A526" s="1" t="s">
         <v>1243</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A527" s="1" t="s">
         <v>1245</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A528" s="1" t="s">
         <v>1247</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A529" s="1" t="s">
         <v>1249</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A530" s="1" t="s">
         <v>1251</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A531" s="1" t="s">
         <v>1256</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A532" s="1" t="s">
         <v>1258</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A533" s="1" t="s">
         <v>1260</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A534" s="1" t="s">
         <v>1262</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A535" s="1" t="s">
         <v>1264</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A536" s="1" t="s">
         <v>1266</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A537" s="1" t="s">
         <v>1268</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A538" s="1" t="s">
         <v>1270</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A539" s="1" t="s">
         <v>1272</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A540" s="1" t="s">
         <v>1277</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A541" s="1" t="s">
         <v>1279</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A542" s="1" t="s">
         <v>1281</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A543" s="1" t="s">
         <v>1283</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A544" s="1" t="s">
         <v>1285</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A545" s="1" t="s">
         <v>1287</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A546" s="1" t="s">
         <v>1289</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A547" s="1" t="s">
         <v>1291</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A548" s="1" t="s">
         <v>1293</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A549" s="1" t="s">
         <v>1298</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A550" s="1" t="s">
         <v>1300</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A551" s="1" t="s">
         <v>1302</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A552" s="1" t="s">
         <v>1307</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A553" s="1" t="s">
         <v>1309</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A554" s="1" t="s">
         <v>1311</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A555" s="1" t="s">
         <v>1313</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A556" s="1" t="s">
         <v>1318</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A557" s="1" t="s">
         <v>1320</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A558" s="1" t="s">
         <v>1322</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A559" s="1" t="s">
         <v>1324</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A560" s="1" t="s">
         <v>1326</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A561" s="1" t="s">
         <v>1328</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A562" s="1" t="s">
         <v>1330</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A563" s="1" t="s">
         <v>1332</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A564" s="1" t="s">
         <v>1337</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A565" s="1" t="s">
         <v>1339</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A566" s="1" t="s">
         <v>1341</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A567" s="1" t="s">
         <v>1343</v>
       </c>
